--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -43,18 +43,18 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -100,82 +103,79 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>corona</t>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,37 +805,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,16 +926,16 @@
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,16 +976,16 @@
         <v>235</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5291005291005291</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,16 +1076,16 @@
         <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <v>123</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>37</v>
-      </c>
-      <c r="M14">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2936507936507937</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,37 +1255,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1689008042895442</v>
+        <v>0.1639784946236559</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,37 +1305,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01517107811491285</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3051</v>
+        <v>274</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,63 +1355,87 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01262862488306829</v>
+        <v>0.0164463076426959</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F18">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2111</v>
+        <v>3050</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01358950328022493</v>
+      </c>
+      <c r="C19">
         <v>29</v>
       </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>0.24</v>
+      </c>
+      <c r="F19">
+        <v>0.76</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2105</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6441176470588236</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L22">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6135593220338983</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L25">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="M25">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5899581589958159</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.3846153846153846</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,59 +1733,33 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3698630136986301</v>
+        <v>0.01190849263553745</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32">
-        <v>0.01098211484154377</v>
-      </c>
-      <c r="L32">
-        <v>35</v>
-      </c>
-      <c r="M32">
-        <v>49</v>
-      </c>
-      <c r="N32">
-        <v>0.71</v>
-      </c>
-      <c r="O32">
-        <v>0.29</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
